--- a/biology/Botanique/Nerello_mascalese/Nerello_mascalese.xlsx
+++ b/biology/Botanique/Nerello_mascalese/Nerello_mascalese.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le nerello mascalese  est un cépage italien de raisins noirs cultivé dans les vignobles de Sicile et de Sardaigne.
@@ -512,7 +524,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux ou duveteux blanc verdâtre.
 Jeunes feuilles aranéeuses, vertes à nuances jaunâtres.
@@ -544,7 +558,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque tardive: 35  jours après le chasselas.
 </t>
@@ -575,7 +591,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes  sont moyennes à grandes et les baies sont de taille moyenne. La grappe est cylindrique ou conique et moyennement compacte. Le cépage produit un vin de couleur rouge rubis, intense et riche en alcool.
 </t>
@@ -606,7 +624,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerello mascalese est connu sous le nom de nerello, nireddu, nirello mascalese, niureddu mascalese, niureddu mascalisi. Par erreur pignatello nero
 </t>
